--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_17-21.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_17-21.xlsx
@@ -74,7 +74,7 @@
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
-    <t>0:7</t>
+    <t>0:6</t>
   </si>
   <si>
     <t>BRONCHONEER 30 TAB</t>
@@ -155,9 +155,6 @@
     <t>GOURYST 0.5 MG 100 TABS.</t>
   </si>
   <si>
-    <t>0:6</t>
-  </si>
-  <si>
     <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -275,19 +272,19 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>فازلين بيور كبير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>-2:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>فازلين بيور كبير</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>محلول خليط</t>
@@ -1100,11 +1097,11 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>0.080000000000000002</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1588,7 +1585,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -1606,7 +1603,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1632,7 +1629,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1658,7 +1655,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1666,7 +1663,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -1684,7 +1681,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1710,7 +1707,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1718,7 +1715,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -1736,7 +1733,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1744,7 +1741,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -1762,7 +1759,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1788,7 +1785,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1796,7 +1793,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -1814,7 +1811,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1840,7 +1837,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1866,7 +1863,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1874,7 +1871,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -1892,7 +1889,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1900,7 +1897,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -1918,7 +1915,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1926,7 +1923,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -1944,7 +1941,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1970,7 +1967,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1996,7 +1993,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2004,7 +2001,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -2022,7 +2019,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2030,7 +2027,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
@@ -2048,7 +2045,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2074,7 +2071,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2100,7 +2097,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2126,7 +2123,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2134,7 +2131,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -2152,7 +2149,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2178,7 +2175,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2186,7 +2183,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
@@ -2204,7 +2201,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2230,7 +2227,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2238,7 +2235,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
@@ -2256,7 +2253,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2282,7 +2279,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2290,7 +2287,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -2308,7 +2305,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2334,7 +2331,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2342,17 +2339,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2360,7 +2357,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2368,7 +2365,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
@@ -2386,7 +2383,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2394,7 +2391,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
@@ -2412,7 +2409,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2420,7 +2417,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
@@ -2438,7 +2435,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2461,7 +2458,7 @@
     </row>
     <row r="65" ht="26.25" customHeight="1">
       <c r="K65" s="11">
-        <v>3528.0300000000002</v>
+        <v>3540.0300000000002</v>
       </c>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
@@ -2469,19 +2466,19 @@
     </row>
     <row r="66" ht="16.5" customHeight="1">
       <c t="s" r="A66" s="12">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c t="s" r="F66" s="13">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G66" s="13"/>
       <c r="H66" s="14"/>
       <c t="s" r="I66" s="15">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J66" s="15"/>
       <c r="K66" s="15"/>
